--- a/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST_since_2021/ifo_qoq_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST_since_2021/ifo_qoq_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.08976344248575673</v>
+        <v>0.09008902633495776</v>
       </c>
       <c r="C2">
-        <v>0.2810342572728775</v>
+        <v>0.2712929561332827</v>
       </c>
       <c r="D2">
-        <v>0.1277635452430279</v>
+        <v>0.1215236909347529</v>
       </c>
       <c r="E2">
-        <v>0.3574402680770982</v>
+        <v>0.3486024826858709</v>
       </c>
       <c r="F2">
-        <v>0.3560162961777761</v>
+        <v>0.3459885601116726</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4611709224505884</v>
+        <v>0.440854564544955</v>
       </c>
       <c r="C3">
-        <v>0.5214173075996358</v>
+        <v>0.4977539282968331</v>
       </c>
       <c r="D3">
-        <v>0.5247849680569511</v>
+        <v>0.4961366786238803</v>
       </c>
       <c r="E3">
-        <v>0.7244204359741317</v>
+        <v>0.7043697030848788</v>
       </c>
       <c r="F3">
-        <v>0.5758584853194955</v>
+        <v>0.5652750901259675</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.7266192597499593</v>
+        <v>0.6924743815712978</v>
       </c>
       <c r="C4">
-        <v>0.7470509455162526</v>
+        <v>0.7117042034689857</v>
       </c>
       <c r="D4">
-        <v>1.011007150537282</v>
+        <v>0.9527927106825833</v>
       </c>
       <c r="E4">
-        <v>1.005488513379085</v>
+        <v>0.9761110135033737</v>
       </c>
       <c r="F4">
-        <v>0.7177978188117343</v>
+        <v>0.7091201857914559</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.732845426476416</v>
+        <v>0.6938486294701675</v>
       </c>
       <c r="C5">
-        <v>0.7353200614677544</v>
+        <v>0.696168599774547</v>
       </c>
       <c r="D5">
-        <v>0.764740319090268</v>
+        <v>0.7176852045027668</v>
       </c>
       <c r="E5">
-        <v>0.8744943219314051</v>
+        <v>0.8471630330123989</v>
       </c>
       <c r="F5">
-        <v>0.4939034390693199</v>
+        <v>0.5020058792592104</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5822619370702647</v>
+        <v>0.5732877799022984</v>
       </c>
       <c r="C6">
-        <v>0.5822619370702647</v>
+        <v>0.5732877799022984</v>
       </c>
       <c r="D6">
-        <v>0.4553771261895659</v>
+        <v>0.438377994181727</v>
       </c>
       <c r="E6">
-        <v>0.674816364790871</v>
+        <v>0.6621011963300829</v>
       </c>
       <c r="F6">
-        <v>0.3539746057387219</v>
+        <v>0.3428646894649251</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4992632290767515</v>
+        <v>0.4864587127141264</v>
       </c>
       <c r="C7">
-        <v>0.5011299594366562</v>
+        <v>0.4881921051911807</v>
       </c>
       <c r="D7">
-        <v>0.341234643858905</v>
+        <v>0.3241750264404118</v>
       </c>
       <c r="E7">
-        <v>0.5841529284861157</v>
+        <v>0.5693637031286871</v>
       </c>
       <c r="F7">
-        <v>0.3156502990335827</v>
+        <v>0.3070280946439436</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4207781725295732</v>
+        <v>0.4121643343351353</v>
       </c>
       <c r="C8">
-        <v>0.434097683071597</v>
+        <v>0.4244592671431573</v>
       </c>
       <c r="D8">
-        <v>0.2492810833113721</v>
+        <v>0.2374407211537076</v>
       </c>
       <c r="E8">
-        <v>0.4992805657256971</v>
+        <v>0.4872788946319219</v>
       </c>
       <c r="F8">
-        <v>0.2807007066753646</v>
+        <v>0.2705390721203952</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4778971357846719</v>
+        <v>0.4514641206974861</v>
       </c>
       <c r="C9">
-        <v>0.4778971357846719</v>
+        <v>0.4514641206974861</v>
       </c>
       <c r="D9">
-        <v>0.2696792916777243</v>
+        <v>0.2461149259357549</v>
       </c>
       <c r="E9">
-        <v>0.5193065488492555</v>
+        <v>0.4960997137025528</v>
       </c>
       <c r="F9">
-        <v>0.2172388265389857</v>
+        <v>0.2181328903808997</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4166552178523026</v>
+        <v>0.3763340750174313</v>
       </c>
       <c r="C10">
-        <v>0.4166552178523026</v>
+        <v>0.3763340750174313</v>
       </c>
       <c r="D10">
-        <v>0.1812154725079926</v>
+        <v>0.1542216358128203</v>
       </c>
       <c r="E10">
-        <v>0.425694106733923</v>
+        <v>0.3927106260503022</v>
       </c>
       <c r="F10">
-        <v>0.1007564849488961</v>
+        <v>0.1254706130613591</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
